--- a/scripts/ccf_registration/wb3_co1/WB3_co1_cell_types_to_annotations.xlsx
+++ b/scripts/ccf_registration/wb3_co1/WB3_co1_cell_types_to_annotations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CCF_registration_final\wb3_co1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\230801_CCF_registration_final\wb3_co1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5541AAF9-5185-4D6B-A440-272B37DF4542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A9040E-0DD9-4665-9723-4107DB6FC83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1005" windowWidth="21600" windowHeight="12990" xr2:uid="{5683694A-E617-4D30-8F16-149C18CDE99A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5683694A-E617-4D30-8F16-149C18CDE99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>[215]</t>
   </si>
@@ -102,9 +102,6 @@
     <t>['PG-TRN-LRN Fat2 Glut']</t>
   </si>
   <si>
-    <t>['MM Foxb1 Glut']</t>
-  </si>
-  <si>
     <t>[491, 732, 606826647, 606826651, 606826655, 606826659]</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>['VLMC NN', 'ABC NN', 'Astroependymal NN']</t>
+  </si>
+  <si>
+    <t>['MM Foxb1 Glut', 'MM-ant Foxb1 Glut']</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,10 +685,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -710,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -732,7 +732,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -743,10 +743,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,10 +765,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -787,10 +787,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,10 +798,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -820,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -831,10 +831,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,10 +842,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -853,21 +853,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,7 +872,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -884,7 +881,7 @@
         <v>79</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +889,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +900,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
         <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,7 +911,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>3</v>
@@ -925,10 +922,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -936,10 +933,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
         <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,10 +955,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
         <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -969,10 +966,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,10 +977,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,7 +988,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1002,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1013,7 +1010,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
@@ -1024,10 +1021,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1035,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,10 +1043,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
         <v>50</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
         <v>52</v>
-      </c>
-      <c r="E34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,7 +1076,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -1087,16 +1084,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1">
         <v>89</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1121,13 +1118,13 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1"/>
     </row>
